--- a/Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E54806-6F29-4615-A8D1-21F27FDB4FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TATYY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,97 +689,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1727600</v>
+        <v>1803900</v>
       </c>
       <c r="E8" s="3">
-        <v>1840900</v>
+        <v>1711300</v>
       </c>
       <c r="F8" s="3">
-        <v>1885600</v>
+        <v>1823400</v>
       </c>
       <c r="G8" s="3">
-        <v>1739500</v>
+        <v>1867800</v>
       </c>
       <c r="H8" s="3">
-        <v>1560400</v>
+        <v>1723000</v>
       </c>
       <c r="I8" s="3">
-        <v>1540600</v>
+        <v>1545600</v>
       </c>
       <c r="J8" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1502500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +814,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +846,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +924,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +956,11 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1563000</v>
+        <v>1656500</v>
       </c>
       <c r="E17" s="3">
-        <v>1623600</v>
+        <v>1548200</v>
       </c>
       <c r="F17" s="3">
-        <v>1742100</v>
+        <v>1608200</v>
       </c>
       <c r="G17" s="3">
-        <v>1576200</v>
+        <v>1725600</v>
       </c>
       <c r="H17" s="3">
-        <v>1486700</v>
+        <v>1561300</v>
       </c>
       <c r="I17" s="3">
-        <v>1447200</v>
+        <v>1472600</v>
       </c>
       <c r="J17" s="3">
+        <v>1433400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1548500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>164600</v>
+        <v>147400</v>
       </c>
       <c r="E18" s="3">
-        <v>217300</v>
+        <v>163000</v>
       </c>
       <c r="F18" s="3">
-        <v>143500</v>
+        <v>215200</v>
       </c>
       <c r="G18" s="3">
-        <v>163300</v>
+        <v>142200</v>
       </c>
       <c r="H18" s="3">
-        <v>73700</v>
+        <v>161700</v>
       </c>
       <c r="I18" s="3">
-        <v>93500</v>
+        <v>73000</v>
       </c>
       <c r="J18" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1079,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,57 +1089,63 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="G20" s="3">
-        <v>5300</v>
+        <v>-5200</v>
       </c>
       <c r="H20" s="3">
-        <v>17100</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="3">
-        <v>11900</v>
+        <v>17000</v>
       </c>
       <c r="J20" s="3">
-        <v>10500</v>
+        <v>11700</v>
       </c>
       <c r="K20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>267300</v>
+        <v>245200</v>
       </c>
       <c r="E21" s="3">
-        <v>312100</v>
+        <v>264800</v>
       </c>
       <c r="F21" s="3">
-        <v>243600</v>
+        <v>309100</v>
       </c>
       <c r="G21" s="3">
-        <v>259400</v>
+        <v>241300</v>
       </c>
       <c r="H21" s="3">
-        <v>169900</v>
+        <v>256900</v>
       </c>
       <c r="I21" s="3">
-        <v>177800</v>
+        <v>168300</v>
       </c>
       <c r="J21" s="3">
+        <v>176100</v>
+      </c>
+      <c r="K21" s="3">
         <v>40800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,78 +1161,87 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L22" s="3">
         <v>17100</v>
       </c>
-      <c r="I22" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>164600</v>
+        <v>147400</v>
       </c>
       <c r="E23" s="3">
-        <v>212000</v>
+        <v>163000</v>
       </c>
       <c r="F23" s="3">
-        <v>138300</v>
+        <v>210000</v>
       </c>
       <c r="G23" s="3">
-        <v>168500</v>
+        <v>137000</v>
       </c>
       <c r="H23" s="3">
-        <v>73700</v>
+        <v>167000</v>
       </c>
       <c r="I23" s="3">
-        <v>92200</v>
+        <v>73000</v>
       </c>
       <c r="J23" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-50000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18400</v>
+        <v>41700</v>
       </c>
       <c r="E24" s="3">
-        <v>48700</v>
+        <v>-18300</v>
       </c>
       <c r="F24" s="3">
-        <v>-27700</v>
+        <v>48300</v>
       </c>
       <c r="G24" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
-        <v>4000</v>
-      </c>
       <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>183000</v>
+        <v>105600</v>
       </c>
       <c r="E26" s="3">
-        <v>163300</v>
+        <v>181300</v>
       </c>
       <c r="F26" s="3">
-        <v>165900</v>
+        <v>161700</v>
       </c>
       <c r="G26" s="3">
-        <v>169900</v>
+        <v>164300</v>
       </c>
       <c r="H26" s="3">
-        <v>71100</v>
+        <v>168300</v>
       </c>
       <c r="I26" s="3">
-        <v>88200</v>
+        <v>70400</v>
       </c>
       <c r="J26" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-63200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>183000</v>
+        <v>105600</v>
       </c>
       <c r="E27" s="3">
-        <v>163300</v>
+        <v>181300</v>
       </c>
       <c r="F27" s="3">
-        <v>165900</v>
+        <v>161700</v>
       </c>
       <c r="G27" s="3">
-        <v>169900</v>
+        <v>164300</v>
       </c>
       <c r="H27" s="3">
-        <v>71100</v>
+        <v>168300</v>
       </c>
       <c r="I27" s="3">
-        <v>88200</v>
+        <v>70400</v>
       </c>
       <c r="J27" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-63200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1365,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>2600</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1300</v>
       </c>
-      <c r="H29" s="3">
-        <v>79000</v>
-      </c>
       <c r="I29" s="3">
-        <v>-23700</v>
+        <v>78300</v>
       </c>
       <c r="J29" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K29" s="3">
         <v>13200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1461,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,57 +1473,63 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5300</v>
+        <v>5200</v>
       </c>
       <c r="H32" s="3">
-        <v>-17100</v>
+        <v>-5200</v>
       </c>
       <c r="I32" s="3">
-        <v>-11900</v>
+        <v>-17000</v>
       </c>
       <c r="J32" s="3">
-        <v>-10500</v>
+        <v>-11700</v>
       </c>
       <c r="K32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185700</v>
+        <v>105600</v>
       </c>
       <c r="E33" s="3">
-        <v>163300</v>
+        <v>183900</v>
       </c>
       <c r="F33" s="3">
-        <v>165900</v>
+        <v>161700</v>
       </c>
       <c r="G33" s="3">
-        <v>171200</v>
+        <v>164300</v>
       </c>
       <c r="H33" s="3">
-        <v>150100</v>
+        <v>169600</v>
       </c>
       <c r="I33" s="3">
-        <v>64500</v>
+        <v>148700</v>
       </c>
       <c r="J33" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-50000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185700</v>
+        <v>105600</v>
       </c>
       <c r="E35" s="3">
-        <v>163300</v>
+        <v>183900</v>
       </c>
       <c r="F35" s="3">
-        <v>165900</v>
+        <v>161700</v>
       </c>
       <c r="G35" s="3">
-        <v>171200</v>
+        <v>164300</v>
       </c>
       <c r="H35" s="3">
-        <v>150100</v>
+        <v>169600</v>
       </c>
       <c r="I35" s="3">
-        <v>64500</v>
+        <v>148700</v>
       </c>
       <c r="J35" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-50000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,269 +1656,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>250200</v>
+        <v>370400</v>
       </c>
       <c r="E41" s="3">
-        <v>318700</v>
+        <v>247800</v>
       </c>
       <c r="F41" s="3">
-        <v>343700</v>
+        <v>315600</v>
       </c>
       <c r="G41" s="3">
-        <v>380600</v>
+        <v>340400</v>
       </c>
       <c r="H41" s="3">
-        <v>417400</v>
+        <v>376900</v>
       </c>
       <c r="I41" s="3">
-        <v>308100</v>
+        <v>413500</v>
       </c>
       <c r="J41" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K41" s="3">
         <v>256800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I42" s="3">
-        <v>7900</v>
+        <v>5200</v>
       </c>
       <c r="J42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K42" s="3">
         <v>23700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>388500</v>
+        <v>455200</v>
       </c>
       <c r="E43" s="3">
-        <v>418700</v>
+        <v>384800</v>
       </c>
       <c r="F43" s="3">
+        <v>414800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>380900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>396500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>396500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>363900</v>
+      </c>
+      <c r="K43" s="3">
         <v>384500</v>
       </c>
-      <c r="G43" s="3">
-        <v>400300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>367400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>384500</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>551700</v>
+        <v>543900</v>
       </c>
       <c r="E44" s="3">
-        <v>500400</v>
+        <v>546500</v>
       </c>
       <c r="F44" s="3">
-        <v>580700</v>
+        <v>495600</v>
       </c>
       <c r="G44" s="3">
-        <v>480600</v>
+        <v>575200</v>
       </c>
       <c r="H44" s="3">
-        <v>512200</v>
+        <v>476100</v>
       </c>
       <c r="I44" s="3">
-        <v>447700</v>
+        <v>507400</v>
       </c>
       <c r="J44" s="3">
+        <v>443500</v>
+      </c>
+      <c r="K44" s="3">
         <v>478000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31600</v>
+        <v>49600</v>
       </c>
       <c r="E45" s="3">
-        <v>51400</v>
+        <v>31300</v>
       </c>
       <c r="F45" s="3">
-        <v>40800</v>
+        <v>50900</v>
       </c>
       <c r="G45" s="3">
-        <v>76400</v>
+        <v>40400</v>
       </c>
       <c r="H45" s="3">
-        <v>65800</v>
+        <v>75600</v>
       </c>
       <c r="I45" s="3">
-        <v>351600</v>
+        <v>65200</v>
       </c>
       <c r="J45" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K45" s="3">
         <v>81600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1222000</v>
+        <v>1419100</v>
       </c>
       <c r="E46" s="3">
-        <v>1290500</v>
+        <v>1210400</v>
       </c>
       <c r="F46" s="3">
-        <v>1349700</v>
+        <v>1278200</v>
       </c>
       <c r="G46" s="3">
-        <v>1343100</v>
+        <v>1336900</v>
       </c>
       <c r="H46" s="3">
-        <v>1401100</v>
+        <v>1330400</v>
       </c>
       <c r="I46" s="3">
-        <v>1482700</v>
+        <v>1387800</v>
       </c>
       <c r="J46" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1224600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>164600</v>
+        <v>169600</v>
       </c>
       <c r="E47" s="3">
-        <v>143500</v>
+        <v>163000</v>
       </c>
       <c r="F47" s="3">
-        <v>167200</v>
+        <v>142200</v>
       </c>
       <c r="G47" s="3">
-        <v>146200</v>
+        <v>165600</v>
       </c>
       <c r="H47" s="3">
-        <v>138300</v>
+        <v>144800</v>
       </c>
       <c r="I47" s="3">
-        <v>181700</v>
+        <v>137000</v>
       </c>
       <c r="J47" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K47" s="3">
         <v>453000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1270700</v>
+        <v>1290000</v>
       </c>
       <c r="E48" s="3">
-        <v>1318100</v>
+        <v>1258700</v>
       </c>
       <c r="F48" s="3">
-        <v>1397100</v>
+        <v>1305600</v>
       </c>
       <c r="G48" s="3">
-        <v>1360200</v>
+        <v>1383900</v>
       </c>
       <c r="H48" s="3">
-        <v>1219300</v>
+        <v>1347400</v>
       </c>
       <c r="I48" s="3">
-        <v>1016600</v>
+        <v>1207800</v>
       </c>
       <c r="J48" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="K48" s="3">
         <v>987600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>474000</v>
+        <v>461700</v>
       </c>
       <c r="E49" s="3">
-        <v>501700</v>
+        <v>469600</v>
       </c>
       <c r="F49" s="3">
-        <v>528000</v>
+        <v>496900</v>
       </c>
       <c r="G49" s="3">
-        <v>546500</v>
+        <v>523000</v>
       </c>
       <c r="H49" s="3">
-        <v>513500</v>
+        <v>541300</v>
       </c>
       <c r="I49" s="3">
-        <v>406900</v>
+        <v>508700</v>
       </c>
       <c r="J49" s="3">
+        <v>403000</v>
+      </c>
+      <c r="K49" s="3">
         <v>447700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>254100</v>
+        <v>258300</v>
       </c>
       <c r="E52" s="3">
-        <v>192300</v>
+        <v>251700</v>
       </c>
       <c r="F52" s="3">
-        <v>206700</v>
+        <v>190400</v>
       </c>
       <c r="G52" s="3">
-        <v>72400</v>
+        <v>204800</v>
       </c>
       <c r="H52" s="3">
-        <v>90900</v>
+        <v>71700</v>
       </c>
       <c r="I52" s="3">
-        <v>115900</v>
+        <v>90000</v>
       </c>
       <c r="J52" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K52" s="3">
         <v>77700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3385500</v>
+        <v>3598600</v>
       </c>
       <c r="E54" s="3">
-        <v>3446000</v>
+        <v>3353400</v>
       </c>
       <c r="F54" s="3">
-        <v>3648800</v>
+        <v>3413400</v>
       </c>
       <c r="G54" s="3">
-        <v>3468400</v>
+        <v>3614200</v>
       </c>
       <c r="H54" s="3">
-        <v>3363100</v>
+        <v>3435600</v>
       </c>
       <c r="I54" s="3">
-        <v>3203800</v>
+        <v>3331200</v>
       </c>
       <c r="J54" s="3">
+        <v>3173400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3190600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>410800</v>
+        <v>461700</v>
       </c>
       <c r="E57" s="3">
+        <v>406900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>412200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>410900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>421300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="K57" s="3">
         <v>416100</v>
       </c>
-      <c r="F57" s="3">
-        <v>414800</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>425300</v>
       </c>
-      <c r="H57" s="3">
-        <v>443800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>443800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>416100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>425300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21100</v>
+        <v>31300</v>
       </c>
       <c r="E58" s="3">
-        <v>36900</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>115900</v>
+        <v>36500</v>
       </c>
       <c r="G58" s="3">
-        <v>138300</v>
+        <v>114800</v>
       </c>
       <c r="H58" s="3">
-        <v>263400</v>
+        <v>137000</v>
       </c>
       <c r="I58" s="3">
-        <v>650500</v>
+        <v>260900</v>
       </c>
       <c r="J58" s="3">
+        <v>644300</v>
+      </c>
+      <c r="K58" s="3">
         <v>401600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97400</v>
+        <v>144800</v>
       </c>
       <c r="E59" s="3">
-        <v>105300</v>
+        <v>96500</v>
       </c>
       <c r="F59" s="3">
-        <v>110600</v>
+        <v>104300</v>
       </c>
       <c r="G59" s="3">
-        <v>160600</v>
+        <v>109600</v>
       </c>
       <c r="H59" s="3">
-        <v>148800</v>
+        <v>159100</v>
       </c>
       <c r="I59" s="3">
-        <v>160600</v>
+        <v>147400</v>
       </c>
       <c r="J59" s="3">
+        <v>159100</v>
+      </c>
+      <c r="K59" s="3">
         <v>109300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>529300</v>
+        <v>637800</v>
       </c>
       <c r="E60" s="3">
-        <v>558300</v>
+        <v>524300</v>
       </c>
       <c r="F60" s="3">
-        <v>641300</v>
+        <v>553000</v>
       </c>
       <c r="G60" s="3">
-        <v>724200</v>
+        <v>635200</v>
       </c>
       <c r="H60" s="3">
-        <v>855900</v>
+        <v>717400</v>
       </c>
       <c r="I60" s="3">
-        <v>1254900</v>
+        <v>847800</v>
       </c>
       <c r="J60" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="K60" s="3">
         <v>927000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>729500</v>
+        <v>752600</v>
       </c>
       <c r="E61" s="3">
-        <v>755800</v>
+        <v>722600</v>
       </c>
       <c r="F61" s="3">
-        <v>795300</v>
+        <v>748700</v>
       </c>
       <c r="G61" s="3">
-        <v>782200</v>
+        <v>787800</v>
       </c>
       <c r="H61" s="3">
-        <v>732100</v>
+        <v>774800</v>
       </c>
       <c r="I61" s="3">
-        <v>375300</v>
+        <v>725200</v>
       </c>
       <c r="J61" s="3">
+        <v>371700</v>
+      </c>
+      <c r="K61" s="3">
         <v>609700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>326600</v>
+        <v>366500</v>
       </c>
       <c r="E62" s="3">
-        <v>428000</v>
+        <v>323500</v>
       </c>
       <c r="F62" s="3">
-        <v>458200</v>
+        <v>423900</v>
       </c>
       <c r="G62" s="3">
-        <v>488500</v>
+        <v>453900</v>
       </c>
       <c r="H62" s="3">
-        <v>420100</v>
+        <v>483900</v>
       </c>
       <c r="I62" s="3">
-        <v>404300</v>
+        <v>416100</v>
       </c>
       <c r="J62" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K62" s="3">
         <v>421400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1585400</v>
+        <v>1756900</v>
       </c>
       <c r="E66" s="3">
-        <v>1742100</v>
+        <v>1570400</v>
       </c>
       <c r="F66" s="3">
-        <v>1894900</v>
+        <v>1725600</v>
       </c>
       <c r="G66" s="3">
-        <v>1994900</v>
+        <v>1876900</v>
       </c>
       <c r="H66" s="3">
-        <v>2009400</v>
+        <v>1976000</v>
       </c>
       <c r="I66" s="3">
-        <v>2035800</v>
+        <v>1990400</v>
       </c>
       <c r="J66" s="3">
+        <v>2016500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1959400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1111400</v>
+        <v>1159500</v>
       </c>
       <c r="E72" s="3">
-        <v>1015200</v>
+        <v>1100800</v>
       </c>
       <c r="F72" s="3">
-        <v>1065300</v>
+        <v>1005600</v>
       </c>
       <c r="G72" s="3">
-        <v>784800</v>
+        <v>1055200</v>
       </c>
       <c r="H72" s="3">
-        <v>665000</v>
+        <v>777400</v>
       </c>
       <c r="I72" s="3">
-        <v>479300</v>
+        <v>658700</v>
       </c>
       <c r="J72" s="3">
+        <v>474800</v>
+      </c>
+      <c r="K72" s="3">
         <v>542500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1800100</v>
+        <v>1841700</v>
       </c>
       <c r="E76" s="3">
-        <v>1703900</v>
+        <v>1783000</v>
       </c>
       <c r="F76" s="3">
-        <v>1754000</v>
+        <v>1687800</v>
       </c>
       <c r="G76" s="3">
-        <v>1473500</v>
+        <v>1737300</v>
       </c>
       <c r="H76" s="3">
-        <v>1353700</v>
+        <v>1459500</v>
       </c>
       <c r="I76" s="3">
-        <v>1168000</v>
+        <v>1340800</v>
       </c>
       <c r="J76" s="3">
+        <v>1156900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1231200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185700</v>
+        <v>105600</v>
       </c>
       <c r="E81" s="3">
-        <v>163300</v>
+        <v>183900</v>
       </c>
       <c r="F81" s="3">
-        <v>165900</v>
+        <v>161700</v>
       </c>
       <c r="G81" s="3">
-        <v>171200</v>
+        <v>164300</v>
       </c>
       <c r="H81" s="3">
-        <v>150100</v>
+        <v>169600</v>
       </c>
       <c r="I81" s="3">
-        <v>64500</v>
+        <v>148700</v>
       </c>
       <c r="J81" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-50000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102700</v>
+        <v>97800</v>
       </c>
       <c r="E83" s="3">
-        <v>100100</v>
+        <v>101700</v>
       </c>
       <c r="F83" s="3">
-        <v>105300</v>
+        <v>99100</v>
       </c>
       <c r="G83" s="3">
-        <v>90900</v>
+        <v>104300</v>
       </c>
       <c r="H83" s="3">
-        <v>79000</v>
+        <v>90000</v>
       </c>
       <c r="I83" s="3">
-        <v>72400</v>
+        <v>78300</v>
       </c>
       <c r="J83" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K83" s="3">
         <v>76400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>101400</v>
+        <v>275200</v>
       </c>
       <c r="E89" s="3">
-        <v>275200</v>
+        <v>100400</v>
       </c>
       <c r="F89" s="3">
-        <v>130400</v>
+        <v>272600</v>
       </c>
       <c r="G89" s="3">
-        <v>262000</v>
+        <v>129100</v>
       </c>
       <c r="H89" s="3">
-        <v>19800</v>
+        <v>259600</v>
       </c>
       <c r="I89" s="3">
-        <v>227800</v>
+        <v>19600</v>
       </c>
       <c r="J89" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K89" s="3">
         <v>72400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92200</v>
+        <v>-60000</v>
       </c>
       <c r="E91" s="3">
-        <v>-80300</v>
+        <v>-78300</v>
       </c>
       <c r="F91" s="3">
-        <v>-100100</v>
+        <v>-66500</v>
       </c>
       <c r="G91" s="3">
-        <v>-101400</v>
+        <v>-75600</v>
       </c>
       <c r="H91" s="3">
-        <v>-154100</v>
+        <v>-90000</v>
       </c>
       <c r="I91" s="3">
-        <v>-106700</v>
+        <v>-133000</v>
       </c>
       <c r="J91" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-216000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80300</v>
+        <v>-39100</v>
       </c>
       <c r="E94" s="3">
-        <v>-54000</v>
+        <v>-79600</v>
       </c>
       <c r="F94" s="3">
-        <v>-86900</v>
+        <v>-53500</v>
       </c>
       <c r="G94" s="3">
-        <v>-63200</v>
+        <v>-86100</v>
       </c>
       <c r="H94" s="3">
-        <v>185700</v>
+        <v>-62600</v>
       </c>
       <c r="I94" s="3">
-        <v>-72400</v>
+        <v>183900</v>
       </c>
       <c r="J94" s="3">
-        <v>-108000</v>
+        <v>-71700</v>
       </c>
       <c r="K94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51400</v>
+        <v>-122600</v>
       </c>
       <c r="E96" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-121100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-121100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-121100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-121100</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-77700</v>
+        <v>-131700</v>
       </c>
       <c r="E100" s="3">
-        <v>-227800</v>
+        <v>-77000</v>
       </c>
       <c r="F100" s="3">
-        <v>-93500</v>
+        <v>-225600</v>
       </c>
       <c r="G100" s="3">
-        <v>-264700</v>
+        <v>-92600</v>
       </c>
       <c r="H100" s="3">
-        <v>-117200</v>
+        <v>-262200</v>
       </c>
       <c r="I100" s="3">
-        <v>-101400</v>
+        <v>-116100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-151400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-18400</v>
+        <v>-11700</v>
       </c>
       <c r="F101" s="3">
-        <v>13200</v>
+        <v>-18300</v>
       </c>
       <c r="G101" s="3">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="H101" s="3">
-        <v>21100</v>
+        <v>28700</v>
       </c>
       <c r="I101" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>18400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68500</v>
+        <v>122600</v>
       </c>
       <c r="E102" s="3">
-        <v>-25000</v>
+        <v>-67800</v>
       </c>
       <c r="F102" s="3">
-        <v>-36900</v>
+        <v>-24800</v>
       </c>
       <c r="G102" s="3">
-        <v>-36900</v>
+        <v>-36500</v>
       </c>
       <c r="H102" s="3">
-        <v>109300</v>
+        <v>-36500</v>
       </c>
       <c r="I102" s="3">
-        <v>51400</v>
+        <v>108300</v>
       </c>
       <c r="J102" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-168500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E54806-6F29-4615-A8D1-21F27FDB4FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TATYY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,104 +654,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1803900</v>
+        <v>1908200</v>
       </c>
       <c r="E8" s="3">
-        <v>1711300</v>
+        <v>1773700</v>
       </c>
       <c r="F8" s="3">
-        <v>1823400</v>
+        <v>1788000</v>
       </c>
       <c r="G8" s="3">
-        <v>1867800</v>
+        <v>1696200</v>
       </c>
       <c r="H8" s="3">
-        <v>1723000</v>
+        <v>1807300</v>
       </c>
       <c r="I8" s="3">
+        <v>1851300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1707800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1545600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1526000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1502500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,8 +796,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +834,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +854,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,8 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,31 +926,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -959,31 +964,37 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -991,8 +1002,14 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +1019,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1656500</v>
+        <v>1693600</v>
       </c>
       <c r="E17" s="3">
-        <v>1548200</v>
+        <v>1614700</v>
       </c>
       <c r="F17" s="3">
-        <v>1608200</v>
+        <v>1641900</v>
       </c>
       <c r="G17" s="3">
-        <v>1725600</v>
+        <v>1534600</v>
       </c>
       <c r="H17" s="3">
-        <v>1561300</v>
+        <v>1594000</v>
       </c>
       <c r="I17" s="3">
+        <v>1710400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1547500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1472600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1433400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1548500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147400</v>
+        <v>214600</v>
       </c>
       <c r="E18" s="3">
-        <v>163000</v>
+        <v>159000</v>
       </c>
       <c r="F18" s="3">
-        <v>215200</v>
+        <v>146100</v>
       </c>
       <c r="G18" s="3">
-        <v>142200</v>
+        <v>161600</v>
       </c>
       <c r="H18" s="3">
-        <v>161700</v>
+        <v>213300</v>
       </c>
       <c r="I18" s="3">
+        <v>140900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K18" s="3">
         <v>73000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>92600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-46100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,72 +1111,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>245200</v>
+        <v>337400</v>
       </c>
       <c r="E21" s="3">
-        <v>264800</v>
+        <v>263700</v>
       </c>
       <c r="F21" s="3">
-        <v>309100</v>
+        <v>243000</v>
       </c>
       <c r="G21" s="3">
-        <v>241300</v>
+        <v>262400</v>
       </c>
       <c r="H21" s="3">
-        <v>256900</v>
+        <v>306400</v>
       </c>
       <c r="I21" s="3">
+        <v>239200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K21" s="3">
         <v>168300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>176100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>40800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,84 +1209,102 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>14500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>147400</v>
+        <v>212000</v>
       </c>
       <c r="E23" s="3">
-        <v>163000</v>
+        <v>164200</v>
       </c>
       <c r="F23" s="3">
-        <v>210000</v>
+        <v>146100</v>
       </c>
       <c r="G23" s="3">
-        <v>137000</v>
+        <v>161600</v>
       </c>
       <c r="H23" s="3">
-        <v>167000</v>
+        <v>208100</v>
       </c>
       <c r="I23" s="3">
+        <v>135700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>91300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-50000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="E24" s="3">
-        <v>-18300</v>
+        <v>34900</v>
       </c>
       <c r="F24" s="3">
-        <v>48300</v>
+        <v>41400</v>
       </c>
       <c r="G24" s="3">
-        <v>-27400</v>
+        <v>-18100</v>
       </c>
       <c r="H24" s="3">
+        <v>47800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1335,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105600</v>
+        <v>169400</v>
       </c>
       <c r="E26" s="3">
-        <v>181300</v>
+        <v>129300</v>
       </c>
       <c r="F26" s="3">
-        <v>161700</v>
+        <v>104700</v>
       </c>
       <c r="G26" s="3">
-        <v>164300</v>
+        <v>179700</v>
       </c>
       <c r="H26" s="3">
-        <v>168300</v>
+        <v>160300</v>
       </c>
       <c r="I26" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K26" s="3">
         <v>70400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>87400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-63200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105600</v>
+        <v>169400</v>
       </c>
       <c r="E27" s="3">
-        <v>181300</v>
+        <v>129300</v>
       </c>
       <c r="F27" s="3">
-        <v>161700</v>
+        <v>104700</v>
       </c>
       <c r="G27" s="3">
-        <v>164300</v>
+        <v>179700</v>
       </c>
       <c r="H27" s="3">
-        <v>168300</v>
+        <v>160300</v>
       </c>
       <c r="I27" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K27" s="3">
         <v>70400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>87400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-63200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,40 +1449,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2600</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>78300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-23500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>13200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1525,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1563,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105600</v>
+        <v>169400</v>
       </c>
       <c r="E33" s="3">
-        <v>183900</v>
+        <v>129300</v>
       </c>
       <c r="F33" s="3">
-        <v>161700</v>
+        <v>104700</v>
       </c>
       <c r="G33" s="3">
-        <v>164300</v>
+        <v>182300</v>
       </c>
       <c r="H33" s="3">
-        <v>169600</v>
+        <v>160300</v>
       </c>
       <c r="I33" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K33" s="3">
         <v>148700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>63900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-50000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1677,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105600</v>
+        <v>169400</v>
       </c>
       <c r="E35" s="3">
-        <v>183900</v>
+        <v>129300</v>
       </c>
       <c r="F35" s="3">
-        <v>161700</v>
+        <v>104700</v>
       </c>
       <c r="G35" s="3">
-        <v>164300</v>
+        <v>182300</v>
       </c>
       <c r="H35" s="3">
-        <v>169600</v>
+        <v>160300</v>
       </c>
       <c r="I35" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K35" s="3">
         <v>148700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>63900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-50000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1778,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,296 +1794,352 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>370400</v>
+        <v>466700</v>
       </c>
       <c r="E41" s="3">
-        <v>247800</v>
+        <v>368500</v>
       </c>
       <c r="F41" s="3">
-        <v>315600</v>
+        <v>367200</v>
       </c>
       <c r="G41" s="3">
-        <v>340400</v>
+        <v>245600</v>
       </c>
       <c r="H41" s="3">
-        <v>376900</v>
+        <v>312900</v>
       </c>
       <c r="I41" s="3">
+        <v>337400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K41" s="3">
         <v>413500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>305200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>256800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>5200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>5200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>23700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>455200</v>
+        <v>413700</v>
       </c>
       <c r="E43" s="3">
-        <v>384800</v>
+        <v>425300</v>
       </c>
       <c r="F43" s="3">
-        <v>414800</v>
+        <v>451200</v>
       </c>
       <c r="G43" s="3">
-        <v>380900</v>
+        <v>381400</v>
       </c>
       <c r="H43" s="3">
+        <v>411100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>377500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>393000</v>
+      </c>
+      <c r="K43" s="3">
         <v>396500</v>
       </c>
-      <c r="I43" s="3">
-        <v>396500</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>363900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>384500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>543900</v>
+        <v>533900</v>
       </c>
       <c r="E44" s="3">
-        <v>546500</v>
+        <v>561100</v>
       </c>
       <c r="F44" s="3">
-        <v>495600</v>
+        <v>539100</v>
       </c>
       <c r="G44" s="3">
-        <v>575200</v>
+        <v>541700</v>
       </c>
       <c r="H44" s="3">
-        <v>476100</v>
+        <v>491300</v>
       </c>
       <c r="I44" s="3">
+        <v>570100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>471900</v>
+      </c>
+      <c r="K44" s="3">
         <v>507400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>443500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>478000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49600</v>
+        <v>46500</v>
       </c>
       <c r="E45" s="3">
-        <v>31300</v>
+        <v>62100</v>
       </c>
       <c r="F45" s="3">
-        <v>50900</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>40400</v>
+        <v>31000</v>
       </c>
       <c r="H45" s="3">
-        <v>75600</v>
+        <v>50400</v>
       </c>
       <c r="I45" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K45" s="3">
         <v>65200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>348300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>81600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1419100</v>
+        <v>1460900</v>
       </c>
       <c r="E46" s="3">
-        <v>1210400</v>
+        <v>1416900</v>
       </c>
       <c r="F46" s="3">
-        <v>1278200</v>
+        <v>1406600</v>
       </c>
       <c r="G46" s="3">
-        <v>1336900</v>
+        <v>1199700</v>
       </c>
       <c r="H46" s="3">
-        <v>1330400</v>
+        <v>1267000</v>
       </c>
       <c r="I46" s="3">
+        <v>1325100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1318700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1387800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1468700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1224600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>169600</v>
+        <v>206800</v>
       </c>
       <c r="E47" s="3">
-        <v>163000</v>
+        <v>210700</v>
       </c>
       <c r="F47" s="3">
-        <v>142200</v>
+        <v>168100</v>
       </c>
       <c r="G47" s="3">
-        <v>165600</v>
+        <v>161600</v>
       </c>
       <c r="H47" s="3">
-        <v>144800</v>
+        <v>140900</v>
       </c>
       <c r="I47" s="3">
+        <v>164200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K47" s="3">
         <v>137000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>180000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>453000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1290000</v>
+        <v>1537200</v>
       </c>
       <c r="E48" s="3">
-        <v>1258700</v>
+        <v>1269500</v>
       </c>
       <c r="F48" s="3">
-        <v>1305600</v>
+        <v>1278600</v>
       </c>
       <c r="G48" s="3">
-        <v>1383900</v>
+        <v>1247600</v>
       </c>
       <c r="H48" s="3">
-        <v>1347400</v>
+        <v>1294100</v>
       </c>
       <c r="I48" s="3">
+        <v>1371700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1335500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1207800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1006900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>987600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>461700</v>
+        <v>449900</v>
       </c>
       <c r="E49" s="3">
-        <v>469600</v>
+        <v>442100</v>
       </c>
       <c r="F49" s="3">
-        <v>496900</v>
+        <v>457700</v>
       </c>
       <c r="G49" s="3">
-        <v>523000</v>
+        <v>465400</v>
       </c>
       <c r="H49" s="3">
-        <v>541300</v>
+        <v>492600</v>
       </c>
       <c r="I49" s="3">
+        <v>518400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>536500</v>
+      </c>
+      <c r="K49" s="3">
         <v>508700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>403000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>447700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2170,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2208,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>258300</v>
+        <v>44000</v>
       </c>
       <c r="E52" s="3">
-        <v>251700</v>
+        <v>271500</v>
       </c>
       <c r="F52" s="3">
-        <v>190400</v>
+        <v>256000</v>
       </c>
       <c r="G52" s="3">
-        <v>204800</v>
+        <v>249500</v>
       </c>
       <c r="H52" s="3">
-        <v>71700</v>
+        <v>188800</v>
       </c>
       <c r="I52" s="3">
+        <v>203000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K52" s="3">
         <v>90000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>114800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>77700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2284,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3598600</v>
+        <v>3698700</v>
       </c>
       <c r="E54" s="3">
-        <v>3353400</v>
+        <v>3610800</v>
       </c>
       <c r="F54" s="3">
-        <v>3413400</v>
+        <v>3566900</v>
       </c>
       <c r="G54" s="3">
-        <v>3614200</v>
+        <v>3323800</v>
       </c>
       <c r="H54" s="3">
-        <v>3435600</v>
+        <v>3383300</v>
       </c>
       <c r="I54" s="3">
+        <v>3582400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3405300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3331200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3173400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3190600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2342,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2358,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>461700</v>
+        <v>394300</v>
       </c>
       <c r="E57" s="3">
-        <v>406900</v>
+        <v>442100</v>
       </c>
       <c r="F57" s="3">
-        <v>412200</v>
+        <v>457700</v>
       </c>
       <c r="G57" s="3">
-        <v>410900</v>
+        <v>403400</v>
       </c>
       <c r="H57" s="3">
-        <v>421300</v>
+        <v>408500</v>
       </c>
       <c r="I57" s="3">
+        <v>407200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>417600</v>
+      </c>
+      <c r="K57" s="3">
         <v>439600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>439600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>416100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31300</v>
+        <v>331000</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>289600</v>
       </c>
       <c r="F58" s="3">
-        <v>36500</v>
+        <v>31000</v>
       </c>
       <c r="G58" s="3">
-        <v>114800</v>
+        <v>20700</v>
       </c>
       <c r="H58" s="3">
-        <v>137000</v>
+        <v>36200</v>
       </c>
       <c r="I58" s="3">
+        <v>113800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K58" s="3">
         <v>260900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>644300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>401600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>144800</v>
+        <v>150000</v>
       </c>
       <c r="E59" s="3">
-        <v>96500</v>
+        <v>148700</v>
       </c>
       <c r="F59" s="3">
-        <v>104300</v>
+        <v>143500</v>
       </c>
       <c r="G59" s="3">
-        <v>109600</v>
+        <v>95700</v>
       </c>
       <c r="H59" s="3">
+        <v>103400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>147400</v>
+      </c>
+      <c r="L59" s="3">
         <v>159100</v>
       </c>
-      <c r="I59" s="3">
-        <v>147400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>159100</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>109300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>637800</v>
+        <v>875200</v>
       </c>
       <c r="E60" s="3">
-        <v>524300</v>
+        <v>880400</v>
       </c>
       <c r="F60" s="3">
-        <v>553000</v>
+        <v>632200</v>
       </c>
       <c r="G60" s="3">
-        <v>635200</v>
+        <v>519700</v>
       </c>
       <c r="H60" s="3">
-        <v>717400</v>
+        <v>548200</v>
       </c>
       <c r="I60" s="3">
+        <v>629600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>711000</v>
+      </c>
+      <c r="K60" s="3">
         <v>847800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1243000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>927000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>752600</v>
+        <v>695500</v>
       </c>
       <c r="E61" s="3">
-        <v>722600</v>
+        <v>482200</v>
       </c>
       <c r="F61" s="3">
-        <v>748700</v>
+        <v>746000</v>
       </c>
       <c r="G61" s="3">
-        <v>787800</v>
+        <v>716200</v>
       </c>
       <c r="H61" s="3">
-        <v>774800</v>
+        <v>742100</v>
       </c>
       <c r="I61" s="3">
+        <v>780900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>767900</v>
+      </c>
+      <c r="K61" s="3">
         <v>725200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>371700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>609700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>366500</v>
+        <v>346500</v>
       </c>
       <c r="E62" s="3">
-        <v>323500</v>
+        <v>323200</v>
       </c>
       <c r="F62" s="3">
-        <v>423900</v>
+        <v>363300</v>
       </c>
       <c r="G62" s="3">
-        <v>453900</v>
+        <v>320600</v>
       </c>
       <c r="H62" s="3">
-        <v>483900</v>
+        <v>420200</v>
       </c>
       <c r="I62" s="3">
+        <v>449900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K62" s="3">
         <v>416100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>421400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2620,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2658,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2696,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1756900</v>
+        <v>1917200</v>
       </c>
       <c r="E66" s="3">
-        <v>1570400</v>
+        <v>1685800</v>
       </c>
       <c r="F66" s="3">
-        <v>1725600</v>
+        <v>1741400</v>
       </c>
       <c r="G66" s="3">
-        <v>1876900</v>
+        <v>1556500</v>
       </c>
       <c r="H66" s="3">
-        <v>1976000</v>
+        <v>1710400</v>
       </c>
       <c r="I66" s="3">
+        <v>1860400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1958600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1990400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2016500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1959400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2754,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2788,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2826,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2864,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2902,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1159500</v>
+        <v>1105400</v>
       </c>
       <c r="E72" s="3">
-        <v>1100800</v>
+        <v>1248900</v>
       </c>
       <c r="F72" s="3">
-        <v>1005600</v>
+        <v>1149300</v>
       </c>
       <c r="G72" s="3">
-        <v>1055200</v>
+        <v>1091100</v>
       </c>
       <c r="H72" s="3">
-        <v>777400</v>
+        <v>996800</v>
       </c>
       <c r="I72" s="3">
+        <v>1045900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>770500</v>
+      </c>
+      <c r="K72" s="3">
         <v>658700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>474800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>542500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2978,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +3016,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +3054,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1841700</v>
+        <v>1781500</v>
       </c>
       <c r="E76" s="3">
-        <v>1783000</v>
+        <v>1925000</v>
       </c>
       <c r="F76" s="3">
-        <v>1687800</v>
+        <v>1825400</v>
       </c>
       <c r="G76" s="3">
-        <v>1737300</v>
+        <v>1767300</v>
       </c>
       <c r="H76" s="3">
-        <v>1459500</v>
+        <v>1672900</v>
       </c>
       <c r="I76" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1340800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1156900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1231200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +3130,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105600</v>
+        <v>169400</v>
       </c>
       <c r="E81" s="3">
-        <v>183900</v>
+        <v>129300</v>
       </c>
       <c r="F81" s="3">
-        <v>161700</v>
+        <v>104700</v>
       </c>
       <c r="G81" s="3">
-        <v>164300</v>
+        <v>182300</v>
       </c>
       <c r="H81" s="3">
-        <v>169600</v>
+        <v>160300</v>
       </c>
       <c r="I81" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K81" s="3">
         <v>148700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>63900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-50000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3231,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97800</v>
+        <v>125400</v>
       </c>
       <c r="E83" s="3">
-        <v>101700</v>
+        <v>99500</v>
       </c>
       <c r="F83" s="3">
-        <v>99100</v>
+        <v>97000</v>
       </c>
       <c r="G83" s="3">
-        <v>104300</v>
+        <v>100800</v>
       </c>
       <c r="H83" s="3">
-        <v>90000</v>
+        <v>98300</v>
       </c>
       <c r="I83" s="3">
+        <v>103400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K83" s="3">
         <v>78300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>71700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>76400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3303,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3341,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3379,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3417,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3455,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>275200</v>
+        <v>297300</v>
       </c>
       <c r="E89" s="3">
-        <v>100400</v>
+        <v>153800</v>
       </c>
       <c r="F89" s="3">
-        <v>272600</v>
+        <v>272800</v>
       </c>
       <c r="G89" s="3">
-        <v>129100</v>
+        <v>99500</v>
       </c>
       <c r="H89" s="3">
-        <v>259600</v>
+        <v>270200</v>
       </c>
       <c r="I89" s="3">
+        <v>128000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K89" s="3">
         <v>19600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>225600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3513,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60000</v>
+        <v>-80200</v>
       </c>
       <c r="E91" s="3">
-        <v>-78300</v>
+        <v>-73700</v>
       </c>
       <c r="F91" s="3">
-        <v>-66500</v>
+        <v>-59500</v>
       </c>
       <c r="G91" s="3">
-        <v>-75600</v>
+        <v>-77600</v>
       </c>
       <c r="H91" s="3">
-        <v>-90000</v>
+        <v>-65900</v>
       </c>
       <c r="I91" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-133000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-216000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3585,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3623,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39100</v>
+        <v>-58200</v>
       </c>
       <c r="E94" s="3">
-        <v>-79600</v>
+        <v>-104700</v>
       </c>
       <c r="F94" s="3">
-        <v>-53500</v>
+        <v>-38800</v>
       </c>
       <c r="G94" s="3">
-        <v>-86100</v>
+        <v>-78900</v>
       </c>
       <c r="H94" s="3">
-        <v>-62600</v>
+        <v>-53000</v>
       </c>
       <c r="I94" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K94" s="3">
         <v>183900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-71700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-108000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3681,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-122600</v>
+        <v>-125400</v>
       </c>
       <c r="E96" s="3">
-        <v>-50900</v>
+        <v>-51700</v>
       </c>
       <c r="F96" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-120000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-120000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-120000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-50000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3753,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3791,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3829,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-131700</v>
+        <v>-160300</v>
       </c>
       <c r="E100" s="3">
-        <v>-77000</v>
+        <v>-50400</v>
       </c>
       <c r="F100" s="3">
-        <v>-225600</v>
+        <v>-130600</v>
       </c>
       <c r="G100" s="3">
-        <v>-92600</v>
+        <v>-76300</v>
       </c>
       <c r="H100" s="3">
-        <v>-262200</v>
+        <v>-223700</v>
       </c>
       <c r="I100" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-259900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-116100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-151400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18300</v>
+        <v>19400</v>
       </c>
       <c r="E101" s="3">
-        <v>-11700</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
-        <v>-18300</v>
+        <v>18100</v>
       </c>
       <c r="G101" s="3">
-        <v>13000</v>
+        <v>-11600</v>
       </c>
       <c r="H101" s="3">
-        <v>28700</v>
+        <v>-18100</v>
       </c>
       <c r="I101" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K101" s="3">
         <v>20900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>18400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>122600</v>
+        <v>98300</v>
       </c>
       <c r="E102" s="3">
-        <v>-67800</v>
+        <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>-24800</v>
+        <v>121500</v>
       </c>
       <c r="G102" s="3">
-        <v>-36500</v>
+        <v>-67200</v>
       </c>
       <c r="H102" s="3">
-        <v>-36500</v>
+        <v>-24600</v>
       </c>
       <c r="I102" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K102" s="3">
         <v>108300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>50900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-168500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-30300</v>
       </c>
     </row>
